--- a/analyses/tools.xlsx
+++ b/analyses/tools.xlsx
@@ -94,7 +94,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -155,13 +155,13 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -501,7 +501,7 @@
     <col min="21" max="21" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +566,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -631,7 +631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -694,7 +694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -757,7 +757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -820,7 +820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -883,7 +883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -948,7 +948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3">
         <v>0</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3">
         <v>0</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3">
         <v>0</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3">
         <v>0</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3">
         <v>0</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3">
         <v>0</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="3">
         <v>0</v>
       </c>
